--- a/Uiteindelijke_Planning.xlsx
+++ b/Uiteindelijke_Planning.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">

--- a/Uiteindelijke_Planning.xlsx
+++ b/Uiteindelijke_Planning.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
